--- a/Selenium/凹凸数据.xlsx
+++ b/Selenium/凹凸数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhpon\Desktop\Jser\pyhton-init\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785FD5F0-2B26-43A3-BAD0-6BA6D94D5376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F253A70C-17C9-4894-A303-51A13891BFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
   <si>
     <t>标题</t>
   </si>
@@ -37,254 +37,291 @@
     <t>2020-4-5</t>
   </si>
   <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJaeU7eYg2hccLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgOwatDdYb6xCwKhcITKoeemJbk4Kjl0WhtmvuJCDzJcF0UOO2Q2kiwqpL67oF5CIBtJ3BIV504BgWx-JaDtZOp2NX0lWj5Jgy8V-x-HTNbB8bvq3Vck0st0Cn9lOoZLP2Q..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7SsGbFZGZ1d6rg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBACqDK8ZoynMsHIXbcQ-bWD3uyeQhFt_OwCsF-47y8rLDZNm7hXkrHDW97z3zIaVY-_U2FADDEF6hTpe-eppLjzUYNsXB1e-KjMWYDyAa81PJC0ZTwUjr33S-e4Yz84xMA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40AF0BAC85000E6A6ECC7EAD9826116B3B940B5EC5375B</t>
+  </si>
+  <si>
+    <t>10大经典数据分析模型,你知道几个?</t>
+  </si>
+  <si>
+    <t>1天前</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7SsGbFZGZ1d6rg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBMZ4e5F0SKZBeA8foW1YXCBY85DWMczqtUFSdQQnN9YHpZwucU2H361k4jKa43DxkRajUJ2hBYr6n1BXbb6B3WvEpLu2O6ihCrzpKSL2zTVflS13hEAZfJwO8fIRwtipOg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40AF0BAC85000E6A6ECC7EAD9826116B3B940B5EC5375B</t>
+  </si>
+  <si>
+    <t>介绍一位高级数据分析师</t>
+  </si>
+  <si>
+    <t>3天前</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7SuSQFB9LuBqrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBKehUVFa9enaNDrFGmuJE4CAXDlMprpGph0acEr56ilR9tIRfdn6Wcto4vr0GOhSJmeyKFOd6SwET_w6J_YOhIYG-yVsHOsL7dnmJ4MfznbkUU23i7ruZmVf_71bqkOtiw..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40BA6EAC85000E6A6ECC7EAD9826116B3B940B5EC5375E</t>
+  </si>
+  <si>
+    <t>一位数据分析师的成长日记</t>
+  </si>
+  <si>
+    <t>2020-5-13</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7SuSQFB9LuBqrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBFmSowunD9alZuB2mT0vsL8VhvAYGHeP4mZsnMExt3TfvN5jT_8etUepQTbGZ3tWHkjtG_OMuh-cNuMtf-uzcaHSB3rKHKPHBD-0T8iv4LUfoA1TPLkbIChhWLv6O878UA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40BA6EAC85000E6A6ECC7EAD9826116B3B940B5EC5375E</t>
   </si>
   <si>
     <t>5个常用的大数据可视化分析工具</t>
   </si>
   <si>
-    <t>3天前</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJaeU7eYg2hccLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgC7RpER_b135ggEzXzBVYOkAcofU_f5a3rnqf0O8RyJFVDb3fNMbtmx3HgJDH1Vh4qZWo8R_epaOHgvZRFVmwP8Wc-rO8C0ckWCLMngykLDIqWSINKXOR-nm0CtGSSkZQQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>干货 | 常见数据分析规范</t>
+    <t>2020-5-14</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7SuSQFB9LuBqrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBKCC_KGZEIf1MdhJToroQft1xmhhZbpWS3M9AKzBH4kZIte5SyTnfFz0yX72Vt5q03efXn9WgmrLMiFlcljHahnjkq0pj95xyiTiTdVJqbXPUhYDYgcCnFS54z_tGSZTqA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40BA6EAC85000E6A6ECC7EAD9826116B3B940B5EC5375E</t>
+  </si>
+  <si>
+    <t>数据分析师必知必会:AB测试项目复盘(附PPT、python源码)</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7SuSQFB9LuBqrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBBfkbg-SdCzPd3ZutImdP68BmmXGvrXwqHIJ2POkWFi4qQcCDKikqVLocKXHWoZqytP4wE6HezT4UBraiI_PZQyGHwAX3z2ISD8oVvFA5YV4a3fvfaEAHSjyPfCoem7FzA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40BA6EAC85000E6A6ECC7EAD9826116B3B940B5EC5375E</t>
+  </si>
+  <si>
+    <t>刷完一波「数据结构与算法」,我感觉捡到宝了</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7SuSQFB9LuBqrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBDq2l70PBFMixXPDlUOoCCPb9NWuC2pOh-eXzIE0uMX0MA59jEQeej8Unhmxy_FQ6z_m7K1kFjjgQvS9gJO_OSWUNLm03pXPFmAsOaJRRl9kfJTdADTWB00HpHkoPMgL3A..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40BA6EAC85000E6A6ECC7EAD9826116B3B940B5EC5375E</t>
+  </si>
+  <si>
+    <t>一套数据分析的实用方法论.</t>
+  </si>
+  <si>
+    <t>2020-5-10</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7SuSQFB9LuBqrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBEIEgKzLlY_aCzKU_ut03rJ9sQAJbiJA1RIpzG3lDG96Wwq7IVMT0eDs-w_CtXuUA7DRPTq-4VPoFgmK2PUvgNM9alj5t_7gI6xsHG1wwp5bkpQU0AFd8lr0OK9DLfgmPA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40BA6EAC85000E6A6ECC7EAD9826116B3B940B5EC5375E</t>
+  </si>
+  <si>
+    <t>数据分析师的案头工具书都在这了 【送书3本】</t>
+  </si>
+  <si>
+    <t>2天前</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7SuSQFB9LuBqrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBPnk-ADkkXXB3HhqiDKCNPK4p66hFlbY1YJNx65_SxZmBnN3GNXwCaJS-uxY8LL1Mk3pAx-MvC3Qgf9cjXEPL0-W0bQonWqGXaAQo4GNZm9RJHO1dxFND-AC2Qmj7RgGwQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40BA6EAC85000E6A6ECC7EAD9826116B3B940B5EC5375E</t>
+  </si>
+  <si>
+    <t>如何在Tableau中创建雷达图?(不修改数据源)</t>
+  </si>
+  <si>
+    <t>2020-5-6</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7BlR9qXokjpyrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBMEjDw_yyTxiM6CAL6JhSv6XpdIXIYKu_WYaRPpXYe2eIu08VqZfAYBihzKjmL2wFA_sUoyrrhMSgUwGCjnUpdnrMRwDb4r6fxZxWHEL4Zej8IG3B3qlM1GAFV_3u-a3OQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40C4A1AC85000E6A6ECC7EAD9826116B3B940B5EC53760</t>
+  </si>
+  <si>
+    <t>百度内部PPT流出:数据分析的道与术</t>
+  </si>
+  <si>
+    <t>2020-5-16</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7BlR9qXokjpyrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBNjmAZ8SbRSLcyFeYy6FBmFJA1K9dVr21jTsLatqVK38Z11EfPzv5UsJ3UDruMpryQPb2X6kOMmJ8IAmYDGPKOXbA54Bi6OoOFxTbTXd3Mrcie2M2-syjfB535pjGOOjYg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40C4A1AC85000E6A6ECC7EAD9826116B3B940B5EC53760</t>
+  </si>
+  <si>
+    <t>积分规则2.0</t>
+  </si>
+  <si>
+    <t>2020-5-7</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7vzonPoE_LMCrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBJvcai7CnYLR51RIkFqENdU7brTD8cRvVODXaBTEWtLtGNPSkB0dDGVz8RuDRrTFL0iwTY2z9a_52GmWEu-f8kDIrteivtYoXazS8ga1CjMKcxuUGtLdkhefxjh3za6jWA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40EB97AC85000E6A6ECC7EAD9826116B3B940B5EC5376A</t>
+  </si>
+  <si>
+    <t>刚学完python自动化系列文章,就接了一单任务</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7vzonPoE_LMCrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBBOlhlz9bCxRyyerodtIzKNJgaSfz_zlsNLR3v1M0-Y-X4m_tktkJ6DdaIRMwBBOsOfQmjFoxW8EOAEHKJXBuZfVoyu22F1pGiq8Y6Ka6bMiJy9GoJxax3Tf3q8uRDTfkw..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40EB97AC85000E6A6ECC7EAD9826116B3B940B5EC5376A</t>
+  </si>
+  <si>
+    <t>bilibili献给爷一代的演讲《前浪》</t>
+  </si>
+  <si>
+    <t>2020-5-4</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7DUzzqw-Za1arg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBPW9QI7goB0hrKv1BGPY1BenCUJt7rcmINxClb7s6UdAQTIoXm0DXyNZAVUcPZ_a6jgbbOVb2A4pxHOsAKBPgyM--C64By4za0oDlq5T27TJO2IFag7moHHdrgozfSg6bw..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40F5C5AC85000E6A6ECC7EAD9826116B3B940B5EC5376C</t>
+  </si>
+  <si>
+    <t>爬取公众号全部文章,就是这么简单</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7DUzzqw-Za1arg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBDSdbZXf8g-vBN-UhxBeL4ZuTy9wL1kgAx7YFsLtkPUXoB7bWvC4EeA4LL7BPLq7P6WRKPovYOsRPjhvetT1objd3tjQ37MmYSOOa28tmRUSVQBxuOAZmfOFW6cwuUnkdA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40F5C5AC85000E6A6ECC7EAD9826116B3B940B5EC5376C</t>
+  </si>
+  <si>
+    <t>15 个边玩游戏边学编程的网站</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7DUzzqw-Za1arg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBC9kNLNoS-ygAk3ZWYE3A6ftDivPGqNRJJ0yMtni0jai7NRreNUGMI2JxLegPKPjAIbiwawhOU_LEgxd35c_Lqt6D1k34xJ73ecKY0oa5wuGzFNpyz50aGvS-e4Yz84xMA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40F5C5AC85000E6A6ECC7EAD9826116B3B940B5EC5376C</t>
+  </si>
+  <si>
+    <t>用Python赚钱的5个方法,教你业余时间赚外快!</t>
+  </si>
+  <si>
+    <t>2020-4-30</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7DUzzqw-Za1arg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBITSH03CVlFCTeQKsR8-kSG-y3P0n5haXw7x3Wq5JgLfVoKcL957Eu60QV7f_e7cNKQgi1QjG5ZG8hZS5Ig36XXAIWFkqhyQwa8ymbP-az886mYQb41Lt0Tm0CtGSSkZQQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40F5C5AC85000E6A6ECC7EAD9826116B3B940B5EC5376C</t>
+  </si>
+  <si>
+    <t>手把手教你爬取天堂网1920*1080大图片</t>
   </si>
   <si>
     <t>2020-5-9</t>
   </si>
   <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJByhRKeoPv1kLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgNQp3td0Gr3uOUiqWSp34Kpys5A9H1twX2SwyovDOVliivMlt-B8rl8CnFINIl3E7Sm3dQnDabF-WZWu_GRnEoe4b6x_x-7Jezox-cLmL0FdU2_BKw-4nslj3x9Nw6p-Fg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>一位数据分析师的成长日记</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJByhRKeoPv1kLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgMmhS50P1MlVo1oqVnjLUpaT3CDcWOLKyZpn5r3g2Vb7xoDLQTY3jF7TYhhQ2fMSEF3O3xvqnDvXYPoBXRz-A18KbsQqR8afsGEgVGH4llUKfpeMLZqeiRWjotuuiAmOIg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>1份优秀的数据分析报告,8步就能搞定!</t>
+    <t>墙裂推荐!B站上的Python学习资源</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7DUzzqw-Za1arg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBFlZRebGh95RHP5OoPQ7Y2K7lZO8WCWVZzP5wnb4iDsy2BhBInKYTenykW9SaGPpFLvejhvAb7sxoFPyYMnojzKMCkEME64sIdgehYchigLW1UX48KSvb5TvzHZXxeLdyg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40F5C5AC85000E6A6ECC7EAD9826116B3B940B5EC5376C</t>
+  </si>
+  <si>
+    <t>在B站外,我看到了另一批“后浪”!</t>
+  </si>
+  <si>
+    <t>2020-5-5</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7DUzzqw-Za1arg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBMw_uH0teS2-ZKt0FSoit3B7U6qJzvWscQzh0so1a2DgnhutZE5kid1TuS5zaIhmsgaj2LDkZKf-YQp0COBtOV0LTSbgEQzwRjR2bpTjFo4_LUQYKz2oeftCy6umSSPEsg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40F5C5AC85000E6A6ECC7EAD9826116B3B940B5EC5376C</t>
+  </si>
+  <si>
+    <t>我花了21.7斤人民币,在深圳买一套三居室</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7OXbbqoArCPSrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBPmdMZ37awOKNoAidBLl3_cqEoXblsDLaeMSldgoe4eSdUZW9LxSXWl4UYWpNwtMaSWUaSAMUPvHIqpuIol2yrVxP1JJoHiyJQH7sGuqL8o8vkrAOsfrPmYYJSSFPgfogQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB4100D2AC85000E6A6ECC7EAD9826116B3B940B5EC5376F</t>
+  </si>
+  <si>
+    <t>印象笔记中国公司恶意抢注 Notion 公司商标</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7OXbbqoArCPSrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBBNLUwcuyzpeH25kJuQJFt62dtCn_gx3AjP_fU8zF8oAZzEOQgOgAei_C7VgwsfHx1mfPQSZWGhJF6L5Miax9yyEtx1-NvfjSJ4nGlENH7N3GjaZN-pftL8SYTqT4eyLmA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB4100D2AC85000E6A6ECC7EAD9826116B3B940B5EC5376F</t>
+  </si>
+  <si>
+    <t>2020年5月程序员工资统计</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7OXbbqoArCPSrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBLs1DgI1gBGWq7KdBPjXM4hiMJ7VbVJpZCp3HbcdUqdijad3cuXlig2_X1P9H26JyrixdDK8bojRppjDa7JHFW9ECIh4juY5nv5_olgyHSGpvpwAFQPTRl5S6t2rFt2rnA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB4100D2AC85000E6A6ECC7EAD9826116B3B940B5EC5376F</t>
+  </si>
+  <si>
+    <t>pip 最新版 发布(Python包安装和管理工具)</t>
   </si>
   <si>
     <t>2020-5-3</t>
   </si>
   <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJByhRKeoPv1kLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgJj0GsssQOBQS2ctT94j8n2EofFEZr1FUnlbJdDUStgwA8mFJog40G6zxm-dakIkd4SMH76yJVxgMzHf7vK814gFRHiUlzvwwb4huW3P760h0IhIeU_6yS-TJmCU1UgHwQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>我们都是一堆数据,要么去分析,要么被分析</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJByhRKeoPv1kLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgNShtUBMOtSVZM99jF3g4hRNTVoyBMp9h63vkqFbfEhyw3Sxndty22zgdPp5Z8sP7c6F046QnMBVSh2Usbu7x8_5YjOJAhwE31B23K6tziMCLEkj635pd4byPfCoem7FzA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>数据分析师必知必会:AB测试项目复盘(附PPT、python源码)</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJByhRKeoPv1kLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgKSkVIIESZz_JvgnvFiIO94tiT6Yz8FrFwQ0MJZVXnlrpbvPf5pnQGU4mPMKR4M7Oej7wE3Dt-QQa8FxdmKD7b6hXk5iJeuUws31WSH15G8o4f0-booFRWh6VKrzu_4XKA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>如何在Tableau中创建雷达图?(不修改数据源)</t>
-  </si>
-  <si>
-    <t>2020-5-6</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJByhRKeoPv1kLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgD4QQnCan7EG6AyMle72Q425Xakr0XVQp1BL-GqZUH7OjwohOKLewfR75M7gQrojPykmNhSCwefo4w1msdchOWweVy3aLznEXwGVlT5AaPt-odvz8SROjgR5Nu7CnoSqqg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>一套数据分析的实用方法论.</t>
-  </si>
-  <si>
-    <t>2020-5-10</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJByhRKeoPv1kLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgF1ErbN6J1tavzXAOK8JfL0blwZE19ryvdiSdcdCA0aYtni3UNgWsSYJEGWrAmtf4SVHFS7hAzky0DR3MvxmJz87ykKZfu2AmNrG3hVlP53mqm_r1Iw8xFhhWLv6O878UA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>百度内部PPT流出:数据分析的道与术</t>
-  </si>
-  <si>
-    <t>21小时前</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJByhRKeoPv1kLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgMGwxi9CljWcQ2q3QKxtF3-iH1JzhyZhP1hg03D1MJb7VgSKsE8atZMLL__wVHcGPIfZc4MtLGETueUlAKvFa5l-fpewv79FjAZXN-s83A5SSHMPjwm-tw9Ae0f8bRARvQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7OXbbqoArCPSrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBPezjj680f3xUYJahfeFyidVvLpKyODKjNRY-PdlrKnLXme-0UzZjgERgmmXnfF03xOMwONThyYs8QvaFWZUA3K7FKw1zqZ2N69jIBf901zKcCEbWtij_f4tPujwwRB2Pw..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB4100D2AC85000E6A6ECC7EAD9826116B3B940B5EC5376F</t>
+  </si>
+  <si>
+    <t>这52页pdf,顶10篇python自动化办公文章</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7OXbbqoArCPSrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBPZ0YB1IUkJooWeTLTWJvPLWeS5DvZ2KNdIzHVpY4Cjo29LXcLr2Rt0AlxkoU77r9x9Reo_qcKvi17ncWz7cZQtxI6FkmKGMbi_OwcbcFm1L84yXvQ_BHbkC2Qmj7RgGwQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB4100D2AC85000E6A6ECC7EAD9826116B3B940B5EC5376F</t>
+  </si>
+  <si>
+    <t>保姆级教学:手把手教你如何实现同期群分析</t>
+  </si>
+  <si>
+    <t>2020-5-2</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7OXbbqoArCPSrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBGwPNRDbFJRWEbzcI_MRFO23uD2zOwB5nhj1E1NqaQnmMImQxhyU2v_zhpkg-LNbMeOf8NMp_f8k1tQw6P5rbNxB12-cR2URCh1wobQkf8lJI8tRjXGbRU5Q_LeJW-Rhtg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB4100D2AC85000E6A6ECC7EAD9826116B3B940B5EC5376F</t>
   </si>
   <si>
     <t>几个SQL在线刷题的网站</t>
   </si>
   <si>
-    <t>1天前</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJ8Dh0i8UhRkYLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgPTSARATWW2h61TNZ9PEeH3a63YH7YCNdoDGDXeP9e5EL-2c97LJ4K1jzmQSicad3_2sGwjduixuHV38o4gE5JXpQ_k-Of996GKfHXNaKl_5vDI23PyCCWVf_71bqkOtiw..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>bilibili献给爷一代的演讲《前浪》</t>
-  </si>
-  <si>
-    <t>2020-5-4</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJ8Dh0i8UhRkYLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgNBzVzNYAwnk9pXINBKRXM6ow1aLiVS2NwlZoTVSCbD-4xqFTudnlZqI5M4nNBK7CrqLQO4smm5PgcJe48niXvk0KneOyo-56-B02aD74Xg_Pz7MpNMwmNpr1dbZWbKUeQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>手把手教你爬取天堂网1920*1080大图片</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJ8Dh0i8UhRkYLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgDsHQwSH-JH6tcpuiixOUZdQsehDTwemuEh2uDibOvdlNlZuMV_ueT-FGLvbA2iyJJFE4fsxs-t8gUq6vLnMl-FciNmJxzJBJ9isKMmhjw370RqV2X3IN19FkDr8IT4KYw..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
+    <t>2020-5-15</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7OXbbqoArCPSrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBC8_4AcKyVh9vwuAA2n4RXG7ApNU0LN4PMBQD_oGfZe4LKqy1_djs2n931vG8oHJ17qcWhV6WZSq_qbIrn97i0VL3bucg5qEcUuDbiTfSv1aND97TzBOpyzm0CtGSSkZQQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB4100D2AC85000E6A6ECC7EAD9826116B3B940B5EC5376F</t>
+  </si>
+  <si>
+    <t>我用Python做了个游戏</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7OXbbqoArCPSrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBKN714nP0ADdAJdTTRcSI0hN5PG1xg0EYZjSqoR6pWWsAfu4OmXXfJXgrzw0R7Gr5VsQw7TrYLFfJHjAfKmesPAW1zwHfGRkVjNBxmOwQjflWe6B3PdObeJAe0f8bRARvQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB4100D2AC85000E6A6ECC7EAD9826116B3B940B5EC5376F</t>
+  </si>
+  <si>
+    <t>Python 炫技操作(04):海象运算符的三种用法</t>
+  </si>
+  <si>
+    <t>2020-5-8</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7OXbbqoArCPSrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBGMNZVHQikYxBR_wDVQUo27u3T6AN0HOarkGBBA24AVV7hEOl0rtnt7IciOwEQek0kU_kk0_b-SkNWmiCASQpeuiU0oJVIfzSfk95Bbsvm6_ODADio9KnehS6t2rFt2rnA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB4100D2AC85000E6A6ECC7EAD9826116B3B940B5EC5376F</t>
+  </si>
+  <si>
+    <t>B站市值破百亿,你真的不考虑当个up主吗? | 附python源码</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7OXbbqoArCPSrg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBLPP0-h0zaVjZh0jbIg_8IyrNpQrhBI13n6Z3KoxSZ_8Le4ByBhXOm1WATWKUHgzyKzCBPdsZdbbvaWgAguMsrEOmd9siANaswacilI5L5BkPKuHZReUflRS6t2rFt2rnA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB4100D2AC85000E6A6ECC7EAD9826116B3B940B5EC5376F</t>
+  </si>
+  <si>
+    <t>python 爬取菜单生成菜谱,做饭买菜不用愁</t>
+  </si>
+  <si>
+    <t>2020-5-11</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7bCokfgURn3-rg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBGjlstoFlfvElT-2tHcodN6EY4ZVEooXj0_DIbo4iV_1p6Rws4nblQ8mBH8n-JU7FgK-Yf5Wjgqc54SdXmnOZMpQ4hzbmR5kb3ACQDsJS3quhhTPDulCUSG00NVofL2iDw..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB410CE4AC85000E6A6ECC7EAD9826116B3B940B5EC53772</t>
   </si>
   <si>
     <t>对不起,我把APP也给爬了</t>
   </si>
   <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJ8Dh0i8UhRkYLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgD52v-j2jpDTUB2eqNkHjRV4ukbP0v3A_7Uukue36v99SKSklRBXBNK_PN7-yt6Hpc9GvvOoW1Y6XsO6YxJ3MlJLLzFmrcYQ1L2-qbnVckscyqZfx81tUPzS-e4Yz84xMA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7bCokfgURn3-rg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBDMP_MP9gkRwCYaSgAXSjdKkte3k8yGrxN-gbMviFEP__FV5JA5H6Yjs20moJ2CFDInClORgBwd17DEcfqv0UNxSjRBGWQSXwuc9G5CrfTj_Ek0BeqgxQSZj3x9Nw6p-Fg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB410CE4AC85000E6A6ECC7EAD9826116B3B940B5EC53772</t>
+  </si>
+  <si>
+    <t>奔涌吧,韭浪!(图文并茂版)</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7bCokfgURn3-rg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBHcrIi3yf-ExjgIqFQK_iJhpmDA2N12G2c5zyCSS3qtQof_HJG0MU7Y_2Uiu9d9issxmrY0lDBV7fhVZX4yF9QcZYfQwp3H2AN-p62hqfg1FyZEkvmqLKmPvzHZXxeLdyg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB410CE4AC85000E6A6ECC7EAD9826116B3B940B5EC53772</t>
+  </si>
+  <si>
+    <t>我摊牌了,6本书+10000积分你们自己拿吧</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7bCokfgURn3-rg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBFoERgGIhgWOZnCXdFAYk0QGTrXV_S7pyEnLovRArYmZM4KFo0I3V2C-xi4hOwyy-JMhRGyJ8rk3ZggnhAsj7dI0A3pJf9bY0k1RuoijUiqInki29aP96Oh5LU3lqtPw9g..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB410CE4AC85000E6A6ECC7EAD9826116B3B940B5EC53772</t>
+  </si>
+  <si>
+    <t>Python炫技操作:花式导包的八种方法</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7bCokfgURn3-rg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBGTRMt-GP-l1QPoRinblrHTfurvWJiWnXFgjVgAldgNmN027ruyfD6yOMCwoLe8OOQNx7LsCsf0v5hGBN_nfWN9Ao7L5Cts5ZsBb8PNAEdq8HzR3WWmYLL_y08OLTBhW0A..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB410CE4AC85000E6A6ECC7EAD9826116B3B940B5EC53772</t>
+  </si>
+  <si>
+    <t>python做RFM代码太复杂,使用Tableau多简单!</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7bCokfgURn3-rg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBH8ttQtgoL5uZsFvAyiM0ClfvHBxFVxCTCTqOUnCm23dEQ9Erid1RKwAizI_uYIr5l1FLY5NyWFv_fIBV3NhzX2vVghXy2L9tP2g0es1hIry75noSOVyp-889kyxDwoXvg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB410CE4AC85000E6A6ECC7EAD9826116B3B940B5EC53772</t>
   </si>
   <si>
     <t>为什么你会被限制登录网页版微信?| itchat为啥不能用了?</t>
   </si>
   <si>
-    <t>2020-5-11</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJ8Dh0i8UhRkYLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgEuIhne0MqHtz6z_Px5uasVnFw6x5RfSFj4K2JuKQ2RMQ32suKXcAXeNglLiH9uwpFn4H71I1f-LAEm22X9vZBZxKUW4zco2IGiUd_gLIpagBrNBKbJ-v1w5eBgmN3LoYQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>爬取公众号全部文章,就是这么简单</t>
-  </si>
-  <si>
-    <t>2020-5-7</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJ8Dh0i8UhRkYLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgPf8W1I8SveRgz0ZQkQWSqEEToczG3gE4-i48KnQoKDMETT6ShrwPafzoDRtnOryTiQQwJhJv7YUuptprE67CUTOBg-pT8V3-x93nPed_nlA9GbSw96_1uW54z_tGSZTqA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>Python3 网络爬虫:视频下载,那些事儿!</t>
-  </si>
-  <si>
-    <t>2020-5-12</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJ8Dh0i8UhRkYLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgOvIaD9e2O-d1L_YR4sFfKhbDGR6IibS3aYsqY__VrkzYhbSn0Ti9-gspa2fhNZ3yhVnmZgqo4T7x4fi3fjqqTmmg2pQik4BuLAlkGk6r-_2Fdk5Twx3wu1FkDr8IT4KYw..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>To B or not to B,这不是问题!</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJGmjGDN6_gIQLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgKd-IT9Nw0ZBjc4P47xv3iRdhcYXFvMdXOIzHIdHLAI2yL4oFFO4kLRxR2YKS9WENuzBuAKwMV4xQSZS1gHJC-evrhJfzJu26bUo40Xzc30KyBE6Mi5u-_FFkDr8IT4KYw..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>用Python赚钱的5个方法,教你业余时间赚外快!</t>
-  </si>
-  <si>
-    <t>2020-4-30</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJGmjGDN6_gIQLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgKt2GEXtz-VC5fK5KozJ4XA8nx_SZUMwmZuMxWJ99WwzkFLf7qfHxe7UIuQDDUYT0yWbZK8_snkPGnBptSPnir58t7ReQox4om5SDWZp5k1goz91FAZpVHDs46dn8Efgxg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>积分规则2.0</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJGmjGDN6_gIQLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgM9snHaA967i85b18Z4y0B2rb5LYtrbUYkTWBRW7t4bypYGdhhbIE8iFY5fbQSFcBHvKMG6wyAI8W4Hn5L8g4smlaZopDFYRF0n2FFkXlx8Bm_mfez2RrTkCYioxHkzTmA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>我花了21.7斤人民币,在深圳买一套三居室</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJGmjGDN6_gIQLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgAPH5upd9FDW6Kt9L7blM2f0vxeGIELndtfvsGqeAXF_wT8-DxiQWDQGexInojpmXfzws-ZJf_2BqZO0BMgakIs_iE-XyQ8KC28hIUQTWDFUiHhxZ2ABFosC2Qmj7RgGwQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>在B站外,我看到了另一批“后浪”!</t>
-  </si>
-  <si>
-    <t>2020-5-5</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJGmjGDN6_gIQLbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgNY5VqiQscB-rVpwcjgS2CiVpmwvFqZVTPWSqifXPx-WSchzysC50rEkCWexkEuop2OEAUkQQXVYXWSe6e6diG0Ie8w43gaXTMP0S5-ew3-ju0kQZl_W0Kfy08OLTBhW0A..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>2020年5月程序员工资统计</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJKxfwjhanR94LbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgJTwG_wO8CDnXUN-IaSGpsxrvIyg0BQ0QnL3SAWVx0NkfbWer60pls6KsL_OmfhuDIIAab1lf0MyGgzRbI0PGq2ynq2Eia7elXS4Iq2I7oHaxCFu1PQasgHzAjcIGepUqA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7bCokfgURn3-rg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBJ9g7P2DIK262Bm5YL0TB9EsgUcgIiddHw2ui35QFzeHs9s91SfPZG7EEvQb0H1stNPImg3pNNlAGc7gkO9S9GwL7D6SW0Yh430FE64XRuGVmTw-dBlf7ls6Ebq8fk9diw..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB410CE4AC85000E6A6ECC7EAD9826116B3B940B5EC53772</t>
   </si>
   <si>
     <t>Python基础语法 | 代码规范&amp;判断语句&amp;循环语句</t>
   </si>
   <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJKxfwjhanR94LbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgPXYghUlhp83Zu4qZ8zaIGdg50qHU01g6su3CzbtCS4fHPCi8UZZPwmf3WKtf8FU59SIDeodFAwKRig8Q8WR6BTRJ0U0THUiFzg7sy6AxGpgAJ6XA2bdkScC2Qmj7RgGwQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>Python 炫技操作(04):海象运算符的三种用法</t>
-  </si>
-  <si>
-    <t>2020-5-8</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJKxfwjhanR94LbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgGdh_9jriK8Estf3hezSDiCvjOwmNYHtn4tBZzLsVTRoPiuZraIJmbDaPZxFen6gj-6l1LtIK6X9xvVlsCRxc6zKkdjD4Hld1kH25sH9TITOAYjjimEw2n5r1dbZWbKUeQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>Python炫技操作:花式导包的八种方法</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJKxfwjhanR94LbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgGv3x-JzGLJI3OsEZvGkAyBuUfLB8agi88GTuYldOHLpDyINUYLmWMWCWWYAkTzv1O_0BqolxImiTGAyQdE0YSIZPFq_aiS2_CJci9HkXy7BtZ6H8kXBkKPs46dn8Efgxg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>pip 最新版 发布(Python包安装和管理工具)</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJKxfwjhanR94LbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgAK6B7Xp78BVUWcA19pft_EQE2Z4_5H22RJ9-PzfIeZ8uxVWlqdH91yUU_CaVzfn7PpsnUeGqiXfqvcSdJuhxLiopIZ-MYXZKkO0_5_u7-OJC6jfJujHILHy08OLTBhW0A..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>python 爬取菜单生成菜谱,做饭买菜不用愁</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJKxfwjhanR94LbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgA0kJm3-y8FvybBriV_bpK_u-hE5GfWTW5PoZAum-tMrLo8u2bL6-5YGwZFtyZEPYOR7DsiTQEmlyybKk8Nm4uYSjkIlILn-skBIEqS0N0seLpcqE8jrloX0OK9DLfgmPA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>python做RFM代码太复杂,使用Tableau多简单!</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJKxfwjhanR94LbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgFHu15Vdt1yH7O84YDqucr60aNDOgIHruPjj6Tzi2zilNianVx7wOy17NVIXm731MKni_g56G3ul8OzI09zGwpOMM9zYvHTF93HPfJhB4BviATxZjHwLtDYCYioxHkzTmA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>印象笔记中国公司恶意抢注 Notion 公司商标</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJKxfwjhanR94LbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgInJnRLE11v1cjDh6kWECU7T4aB8xKDti4P6bxdVs618uMJUGWkPuLz7_gcbvn6dU4YhBDR9-RzDYr_JDIFitX40V2gPOiwgqDcJVYX_KcxTJij1UX4UmTkY-UZGbO56rA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>当互联网码农遇见国企老同学</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJKxfwjhanR94LbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgGHtAGiujt-0mFguqtpaBJGrYAK-oDOIwQpsKNED1W4tFYFTV0kOwF828juhmGHonXijNApWuNHwMaOmbc1tFTmhvNilEyd5HO45UfSfRNQBoHmzOtdQhBsC2Qmj7RgGwQ..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>B站市值破百亿,你真的不考虑当个up主吗? | 附python源码</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJKxfwjhanR94LbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgFzLQcq0xeZibqKheE1sS3DzESMlXChcGrtoohFsIzChTqlKDRhaVtsZMinHJ1ny5Si9BFXISkqe_sHRsmxczAaCW0eBFoqmNaMvZK7tOE6GsanYJf6HYhQHpHkoPMgL3A..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>她当然是独立女性,即使没达到任何人定义里的“完美”</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJVmVH127k3AELbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgEA-GSNsr84ajocBOWqXUQuI0g4tmJAWfvP4CZXpktl9H8I7w7Ge59mwRlaSx3S_OdygQCks3JEYG5vqo5yOPGo7yKw8B7Vnrq5yTDoRu4TCrZ-iPWOW1efs46dn8Efgxg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
-  </si>
-  <si>
-    <t>奔涌吧,韭浪!(图文并茂版)</t>
-  </si>
-  <si>
-    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS75obXQzUDSJVmVH127k3AELbSlEkAEMl1qXa8Fplpd9dFrSPjdVboCo14vS3sZR7HlMqMmaQcn2LuZsE0FEZofF0znFPw0QgENvdEjShWWFmYyCtelvGrrns47_4Lp3WCrjvsDNwV-UGR5NobPuyuk1ZDdkuYUTKIoF6Gg9cbgNIc4BjzZPxXBYyrAH7SgTtkWX82aG0f3qtokYVVKJLXS54z_tGSZTqA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=empty</t>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7AoW8ruwZPm2rg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBNH9ti3pRM7yQaYJ1_AIve7LD4AvQ-1lK8RAT_FjfFjflvbsfh5NHTB-4KlcmWjgdATN9WLJ86rMszAVRucnAAyUUTH_R5tBbgqDb3hWm1A6dfVuUCyXkSBQ_LeJW-Rhtg..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB414251AC85000E6A6ECC7EAD9826116B3B940B5EC5377E</t>
+  </si>
+  <si>
+    <t>https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7DUzzqw-Za1arg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBIHJl3fFkW6FcdCkNEAWrgf382wpWSL9K6jjHlgwLAAsQFmOmYjSOz2qvWr71Jcf2l81j42Rb-x2e00IFK2qp4HCBAD85O658szWZVU3kxbDEOuw1VAfdMUSYTqT4eyLmA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40F5C5AC85000E6A6ECC7EAD9826116B3B940B5EC5376C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +334,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -317,14 +362,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,13 +677,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,387 +696,434 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
       <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
       <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>68</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>85</v>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" display="https://weixin.sogou.com/link?url=dn9a_-gY295K0Rci_xozVXfdMkSQTLW6cwJThYulHEtVjXrGTiVgS2pSbd_OeOm7DUzzqw-Za1arg4pCsubeAVqXa8Fplpd9Wri5zLSMRvnktWRy6KqVqu79iuAF9CXL2DsEzc46S40CbcSWHf1XBIHJl3fFkW6FcdCkNEAWrgf382wpWSL9K6jjHlgwLAAsQFmOmYjSOz2qvWr71Jcf2l81j42Rb-x2e00IFK2qp4HCBAD85O658szWZVU3kxbDEOuw1VAfdMUSYTqT4eyLmA..&amp;type=2&amp;query=%E5%87%B9%E5%87%B8%E6%95%B0%E6%8D%AE&amp;token=EB40F5C5AC85000E6A6ECC7EAD9826116B3B940B5EC5376C" xr:uid="{84B2051F-FA6F-4185-8B46-1486ACFBE4CA}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>